--- a/medicine/Enfance/Catherine_Leblanc/Catherine_Leblanc.xlsx
+++ b/medicine/Enfance/Catherine_Leblanc/Catherine_Leblanc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Catherine Leblanc, née à Cholet (Maine-et-Loire) en 1956, est une écrivaine française. Elle est décédée en septembre 2021[1].Elle écrit des romans, des  proses courtes, des poèmes  et des livres pour la  jeunesse. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Catherine Leblanc, née à Cholet (Maine-et-Loire) en 1956, est une écrivaine française. Elle est décédée en septembre 2021.Elle écrit des romans, des  proses courtes, des poèmes  et des livres pour la  jeunesse. 
 </t>
         </is>
       </c>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,26 +553,99 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Littérature générale
-Fragments de bleu, Oslo, 2008
+          <t>Littérature générale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Fragments de bleu, Oslo, 2008
 Silences, nouvelles, Les Découvertes de la Luciole, 2007  (ISBN 9782952545020)
 Le problème avec les maths, Éditions du Rouergue, 2001 ; Actes Sud, 2007
 C'est maintenant ou jamais, nouvelles, La Martinière, 2003  (ISBN 978-2846750622 et 2846750629)
 Rencontres, proses courtes, illustré par Agnès Caillou, Soc et Foc, 2003  (ISBN 978-2912360243 et 2912360242)
 Touché, L'Amourier, 2001  (ISBN 978-2911718694 et 2911718690)
 Des étoiles sur les genoux, poèmes, illustré par Florence Gilard, Le Dé Bleu, 2000  (ISBN 978-2840311072 et 2840311070)
-Le voile est très mince qui nous sépare des choses, poèmes, La Renarde rouge, 2000  (ISBN 978-2910861162 et 2910861163)
-Romans jeunesse
-Mon frère, Oskar, 2009
+Le voile est très mince qui nous sépare des choses, poèmes, La Renarde rouge, 2000  (ISBN 978-2910861162 et 2910861163)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Catherine_Leblanc</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Catherine_Leblanc</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Mon frère, Oskar, 2009
 Un père encombrant, Oskar 2008
 Ma couleur, illustré par Sophie Charpin, Balivernes, 2007  (ISBN 978-2350670126 et 2350670120)
 Appuie sur la touche étoile, Oskar, 2007
 Un enfant parfait, Oskar, 2007
 Rester vivante, Actes Sud, 2007  (ISBN 978-2742766949 et 2742766944)
 Rock de Lou, Petit à Petit, 2007  (ISBN 978-2849490716 et 2849490717)
-Un jour, ma vie..., La Martinière, 2004  (ISBN 978-2732431253 et 2732431257)
-Albums
-La pluie, Mijade 2008
+Un jour, ma vie..., La Martinière, 2004  (ISBN 978-2732431253 et 2732431257)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Catherine_Leblanc</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Catherine_Leblanc</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Albums</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La pluie, Mijade 2008
 Comment ratatiner les loups ?, Glénat, 2008
 Comment ratatiner les monstres ?, Glénat, 2008
 Viens, on va chercher un poème, illustré par Olivier Thiébaut, Sarbacane, 2008
